--- a/DriverAssumptions/Special_Studies/Wiebe_et_al_2021/Figure_5_final.v2-to-share.xlsx
+++ b/DriverAssumptions/Special_Studies/Wiebe_et_al_2021/Figure_5_final.v2-to-share.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Dropbox (IFPRI)\CtEH\Final\2020.12-final-revisions\ExtraDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Documents\GitHub\IMPACT\DriverAssumptions\Special_Studies\Wiebe_et_al_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37424DC6-FD23-4AEC-81E1-BBE73313F6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008885DC-6B1A-4AEC-8D3C-1BB71AB48504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{39254718-B685-407A-9B83-697140F57DC2}"/>
   </bookViews>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,27 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
-    <t>Crop Value 2015 (FAO)</t>
-  </si>
-  <si>
-    <t>Crop Value 2015 (IMPACT)</t>
-  </si>
-  <si>
-    <t>Crop Value 2030 (IMPACT)</t>
-  </si>
-  <si>
-    <t>ES weighted by poverty headcount</t>
-  </si>
-  <si>
-    <t>ES weighted by poverty gap</t>
-  </si>
-  <si>
-    <t>Undernourished Children</t>
-  </si>
-  <si>
-    <t>Population at Risk of Hunger</t>
-  </si>
-  <si>
     <t>Rice</t>
   </si>
   <si>
@@ -121,27 +102,6 @@
     <t>Soybean</t>
   </si>
   <si>
-    <t>Crop Value</t>
-  </si>
-  <si>
-    <t>Crop Value 2015 (FAO) weighted by poverty headcount</t>
-  </si>
-  <si>
-    <t>Crop Value 2015 (FAO) weighted by poverty gap</t>
-  </si>
-  <si>
-    <t>Crop Value 2015 (IMPACT) weighted by poverty headcount</t>
-  </si>
-  <si>
-    <t>Crop Value 2015 (IMPACT) weighted by poverty gap</t>
-  </si>
-  <si>
-    <t>Crop Value 2030 (IMPACT) weighted by poverty headcount</t>
-  </si>
-  <si>
-    <t>Crop Value 2030 (IMPACT) weighted by poverty gap</t>
-  </si>
-  <si>
     <t>FAO 2015</t>
   </si>
   <si>
@@ -259,7 +219,49 @@
     <t>figure title:</t>
   </si>
   <si>
-    <t>Economic Surplus 2030 (ES)</t>
+    <t>Population at Risk of Hunger 2030</t>
+  </si>
+  <si>
+    <t>Undernourished Children 2030</t>
+  </si>
+  <si>
+    <t>ES weighted by poverty gap 2030</t>
+  </si>
+  <si>
+    <t>ES weighted by poverty headcount 2030</t>
+  </si>
+  <si>
+    <t>Economic Surplus (ES) 2030</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from FAO 2015</t>
+  </si>
+  <si>
+    <t>Reference Crop Value</t>
+  </si>
+  <si>
+    <t>Reference Reference Crop Value from FAO 2015 weighted by poverty headcount</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from FAO 2015 weighted by poverty gap</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from IMPACT 2015</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from IMPACT 2015 weighted by poverty headcount</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from IMPACT 2015 weighted by poverty gap</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from IMPACT 2030</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from IMPACT 2030 weighted by poverty headcount</t>
+  </si>
+  <si>
+    <t>Reference Crop Value from IMPACT 2030 weighted by poverty gap</t>
   </si>
 </sst>
 </file>
@@ -369,7 +371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Crop Value 2015 (FAO)</c:v>
+                  <c:v>Reference Crop Value from FAO 2015</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -542,7 +544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Crop Value 2030 (IMPACT)</c:v>
+                  <c:v>Reference Crop Value from IMPACT 2030</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -717,7 +719,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Economic Surplus 2030 (ES)</c:v>
+                  <c:v>Economic Surplus (ES) 2030</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -893,7 +895,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES weighted by poverty headcount</c:v>
+                  <c:v>ES weighted by poverty headcount 2030</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1066,7 +1068,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES weighted by poverty gap</c:v>
+                  <c:v>ES weighted by poverty gap 2030</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1239,7 +1241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Undernourished Children</c:v>
+                  <c:v>Undernourished Children 2030</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1412,7 +1414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Population at Risk of Hunger</c:v>
+                  <c:v>Population at Risk of Hunger 2030</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1606,7 +1608,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2015 (FAO) weighted by poverty headcount</c:v>
+                        <c:v>Reference Reference Crop Value from FAO 2015 weighted by poverty headcount</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1799,7 +1801,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2015 (FAO) weighted by poverty gap</c:v>
+                        <c:v>Reference Crop Value from FAO 2015 weighted by poverty gap</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1992,7 +1994,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2015 (IMPACT)</c:v>
+                        <c:v>Reference Crop Value from IMPACT 2015</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2185,7 +2187,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2015 (IMPACT) weighted by poverty headcount</c:v>
+                        <c:v>Reference Crop Value from IMPACT 2015 weighted by poverty headcount</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2378,7 +2380,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2015 (IMPACT) weighted by poverty gap</c:v>
+                        <c:v>Reference Crop Value from IMPACT 2015 weighted by poverty gap</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2571,7 +2573,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2030 (IMPACT) weighted by poverty headcount</c:v>
+                        <c:v>Reference Crop Value from IMPACT 2030 weighted by poverty headcount</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2766,7 +2768,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Crop Value 2030 (IMPACT) weighted by poverty gap</c:v>
+                        <c:v>Reference Crop Value from IMPACT 2030 weighted by poverty gap</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3001,6 +3003,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3122,8 +3125,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52828466584052891"/>
-          <c:y val="1.0730917286864304E-2"/>
+          <c:x val="0.50335917593081436"/>
+          <c:y val="4.3033834202187468E-2"/>
           <c:w val="0.46144445325062405"/>
           <c:h val="0.4485863460341365"/>
         </c:manualLayout>
@@ -4105,129 +4108,129 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>36.424300026019388</v>
@@ -4274,7 +4277,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>8.4139060885968107</v>
@@ -4321,7 +4324,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>9.9560890350713827</v>
@@ -4368,7 +4371,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1.371697864431811</v>
@@ -4415,7 +4418,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2.3112192732151104</v>
@@ -4462,7 +4465,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0.83196553330278922</v>
@@ -4509,10 +4512,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>5.925608969301118</v>
@@ -4559,7 +4562,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>7.7898803980676039</v>
@@ -4606,7 +4609,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>5.1943006181627966</v>
@@ -4653,7 +4656,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>0.64583001226032821</v>
@@ -4700,7 +4703,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>6.8057961285257758</v>
@@ -4747,7 +4750,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>2.6068755175078877</v>
@@ -4794,10 +4797,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>6.8593704771956903</v>
@@ -4844,7 +4847,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>3.531285746296565</v>
@@ -4891,7 +4894,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>1.6078530404755567</v>
@@ -4938,7 +4941,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0.61933148619222556</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>0.73834464826034985</v>
@@ -5032,7 +5035,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>0.25045350225418761</v>
@@ -5079,7 +5082,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>0.11210205371680684</v>
@@ -5126,7 +5129,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>3.2892140275509378</v>
@@ -5173,7 +5176,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>1.573946030790575</v>
@@ -5220,146 +5223,146 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="P29" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" t="s">
         <v>52</v>
       </c>
-      <c r="G31" t="s">
+      <c r="M31" t="s">
         <v>53</v>
       </c>
-      <c r="H31" t="s">
+      <c r="N31" t="s">
         <v>54</v>
       </c>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" t="s">
-        <v>57</v>
-      </c>
-      <c r="L31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" t="s">
-        <v>68</v>
-      </c>
       <c r="O31" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
